--- a/biology/Botanique/Cupressus_glabra/Cupressus_glabra.xlsx
+++ b/biology/Botanique/Cupressus_glabra/Cupressus_glabra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyprès blanc de l'Arizona
-Le Cyprès blanc de l'Arizona  ou Cyprès glabre (Cupressus glabra) est un arbre de la famille des Cupressacées, originaire des montagnes du centre de l'Arizona où l'altitude est comprise entre 1 300  et 1 700 mètres[2], cultivé en Europe comme arbre d'ornement. Introduit en Europe en 1907.
+Le Cyprès blanc de l'Arizona  ou Cyprès glabre (Cupressus glabra) est un arbre de la famille des Cupressacées, originaire des montagnes du centre de l'Arizona où l'altitude est comprise entre 1 300  et 1 700 mètres, cultivé en Europe comme arbre d'ornement. Introduit en Europe en 1907.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cupressus arizonica var.  glabra
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'à 18-22 mètres de hauteur. Port conique ou ovoïde. L'écorce est décorative, elle se desquame en petites plaques circulaires. Les feuilles sont des écailles gris pâle. Les fleurs mâles sont petites et jaunes. Les cônes d'environ 1 à 2 cm persistent plusieurs années et comprennent une centaine de graines.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Milieux arides. Peut pousser dans des milieux semi-désertiques et supporte les grands froids (jusqu'à - 20°).
 </t>
